--- a/Migrants Data PDF/ExcelData1.xlsx
+++ b/Migrants Data PDF/ExcelData1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kp534\Desktop\Data-Science\Migrants Data PDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F92214-D6FA-40CE-9991-2DE55C1B5458}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DDBACF-FEF5-49D1-9CF1-9DE3FCBD30FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="17256" windowHeight="5160" xr2:uid="{CFB4555F-D7D6-4F13-B858-3EF6BCCE4602}"/>
+    <workbookView xWindow="0" yWindow="912" windowWidth="17256" windowHeight="5160" xr2:uid="{CFB4555F-D7D6-4F13-B858-3EF6BCCE4602}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Population of Overseas Indians</t>
   </si>
@@ -118,16 +118,13 @@
   </si>
   <si>
     <t>South Africa</t>
-  </si>
-  <si>
-    <t>rrerwe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,13 +141,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -177,11 +167,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -192,7 +179,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA38BA4-48EC-47D0-BCB6-7C3C82A9AF78}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,496 +512,486 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>241000</v>
+      </c>
+      <c r="D3">
+        <v>255000</v>
+      </c>
+      <c r="E3">
+        <v>496000</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>241000</v>
+        <v>10385</v>
       </c>
       <c r="D4">
-        <v>255000</v>
+        <v>3366</v>
       </c>
       <c r="E4">
-        <v>496000</v>
+        <v>326658</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>10385</v>
+        <v>178410</v>
       </c>
       <c r="D5">
-        <v>3366</v>
+        <v>1510645</v>
       </c>
       <c r="E5">
-        <v>326658</v>
+        <v>1689055</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>178410</v>
+        <v>55500</v>
       </c>
       <c r="D6">
-        <v>1510645</v>
+        <v>550</v>
       </c>
       <c r="E6">
-        <v>1689055</v>
+        <v>56050</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>55500</v>
+        <v>31569</v>
       </c>
       <c r="D7">
-        <v>550</v>
+        <v>7160</v>
       </c>
       <c r="E7">
-        <v>56050</v>
+        <v>38729</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>31569</v>
+        <v>3068</v>
       </c>
       <c r="D8">
-        <v>7160</v>
+        <v>378</v>
       </c>
       <c r="E8">
-        <v>38729</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>3068</v>
+        <v>19000</v>
       </c>
       <c r="D9">
-        <v>378</v>
+        <v>90000</v>
       </c>
       <c r="E9">
-        <v>3446</v>
+        <v>109000</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="D10">
-        <v>90000</v>
+        <v>297000</v>
       </c>
       <c r="E10">
-        <v>109000</v>
+        <v>297300</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>300</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3">
+        <v>142585</v>
       </c>
       <c r="D11">
-        <v>297000</v>
-      </c>
-      <c r="E11">
-        <v>297300</v>
+        <v>42500</v>
+      </c>
+      <c r="E11" s="3">
+        <v>185085</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4">
-        <v>142585</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>157695</v>
       </c>
       <c r="D12">
-        <v>42500</v>
-      </c>
-      <c r="E12" s="4">
-        <v>185085</v>
+        <v>45357</v>
+      </c>
+      <c r="E12">
+        <v>203052</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>157695</v>
+        <v>37933</v>
       </c>
       <c r="D13">
-        <v>45357</v>
+        <v>686</v>
       </c>
       <c r="E13">
-        <v>203052</v>
+        <v>38619</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>37933</v>
+        <v>1028274</v>
       </c>
       <c r="D14">
-        <v>686</v>
+        <v>1587</v>
       </c>
       <c r="E14">
-        <v>38619</v>
+        <v>1029861</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>1028274</v>
+        <v>227950</v>
       </c>
       <c r="D15">
-        <v>1587</v>
+        <v>2760000</v>
       </c>
       <c r="E15">
-        <v>1029861</v>
+        <v>2987950</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>227950</v>
+        <v>9207</v>
       </c>
       <c r="D16">
-        <v>2760000</v>
+        <v>2000000</v>
       </c>
       <c r="E16">
-        <v>2987950</v>
+        <v>2009207</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>9207</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2009207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>105000</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>105000</v>
+        <v>2592166</v>
       </c>
       <c r="D19">
-        <v>15000</v>
+        <v>2781</v>
       </c>
       <c r="E19">
-        <v>120000</v>
+        <v>2594947</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>2592166</v>
+        <v>350000</v>
       </c>
       <c r="D20">
-        <v>2781</v>
+        <v>300000</v>
       </c>
       <c r="E20">
-        <v>2594947</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>350000</v>
+        <v>60000</v>
       </c>
       <c r="D21">
-        <v>300000</v>
+        <v>1500000</v>
       </c>
       <c r="E21">
-        <v>650000</v>
+        <v>1560000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>60000</v>
+        <v>14000</v>
       </c>
       <c r="D22">
-        <v>1500000</v>
+        <v>1600000</v>
       </c>
       <c r="E22">
-        <v>1560000</v>
+        <v>1614000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="D23">
-        <v>1600000</v>
+        <v>175000</v>
       </c>
       <c r="E23">
-        <v>1614000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>20000</v>
+        <v>1800</v>
       </c>
       <c r="D24">
-        <v>175000</v>
+        <v>555000</v>
       </c>
       <c r="E24">
-        <v>195000</v>
+        <v>556800</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>1800</v>
+        <v>3419875</v>
       </c>
       <c r="D25">
-        <v>555000</v>
+        <v>5269</v>
       </c>
       <c r="E25">
-        <v>556800</v>
+        <v>3425144</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26">
-        <v>3419875</v>
+        <v>351000</v>
       </c>
       <c r="D26">
-        <v>5269</v>
+        <v>1413000</v>
       </c>
       <c r="E26">
-        <v>3425144</v>
+        <v>1764000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>351000</v>
+        <v>1280000</v>
       </c>
       <c r="D27">
-        <v>1413000</v>
+        <v>3180000</v>
       </c>
       <c r="E27">
-        <v>1764000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>1280000</v>
-      </c>
-      <c r="D28">
-        <v>3180000</v>
-      </c>
-      <c r="E28">
         <v>4460000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
